--- a/sinkhole_data/구별/북구.xlsx
+++ b/sinkhole_data/구별/북구.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogs0\OneDrive\바탕 화면\2025 전국대학생 CM•시공 경진대회\싱크홀 데이터\구별\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDB6CDA-EF6E-4687-9705-AE9F994DB376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2446714-888B-4395-A73D-DB15DAC76039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,28 +40,16 @@
     <t>도로함몰 장소 굴착부분 되메우기 재시공 및 포장 복구 완료</t>
   </si>
   <si>
-    <t>부산광역시 북구 화명 1동 동원로얄듀크 뒷쪽 2차선 산복도로</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>부산광역시 북구 구포동 모분재로 145(구포동 칠우그린빌라 앞)</t>
+  </si>
+  <si>
+    <t>되메우기 후 원상복구</t>
+  </si>
+  <si>
+    <t>부산광역시 북구 구포동 1002-9 인접보도(구명역 사상방면 엘리베이터 입구)</t>
   </si>
   <si>
     <t>기타</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>원인미기재, 복구완료</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>부산광역시 북구 구포동 모분재로 145(구포동 칠우그린빌라 앞)</t>
-  </si>
-  <si>
-    <t>되메우기 후 원상복구</t>
-  </si>
-  <si>
-    <t>부산광역시 북구 구포동 1002-9 인접보도(구명역 사상방면 엘리베이터 입구)</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
   <si>
     <t>소파업체 공동발생 원인파악 및 복구완료</t>
@@ -134,15 +122,15 @@
   </si>
   <si>
     <t>date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>location</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>reason</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>width</t>
@@ -155,20 +143,211 @@
   </si>
   <si>
     <t>method</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>lon</t>
   </si>
   <si>
     <t>lat</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부산광역시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>북구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동원로얄듀크</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뒷쪽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차선</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>산복도로</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기타</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>원인미기재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>복구완료</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,24 +369,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -221,18 +383,17 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Noto Sans KR"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Noto Sans KR"/>
-      <family val="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -262,7 +423,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -286,24 +447,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFDDDDDD"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFDDDDDD"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF333333"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDDDDDD"/>
-      </left>
+      <left/>
       <right style="medium">
         <color rgb="FFDDDDDD"/>
       </right>
@@ -319,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -327,23 +471,29 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -651,48 +801,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G16" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.4140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.08203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="73.4140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="H1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="I1" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -717,13 +866,13 @@
       <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="9">
         <v>129.00914868378399</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="9">
         <v>35.2230779687577</v>
       </c>
-      <c r="J2" s="8"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1">
@@ -747,40 +896,40 @@
       <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="9">
         <v>129.02111481401101</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="9">
         <v>35.218039465330698</v>
       </c>
-      <c r="J3" s="8"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="3">
+      <c r="A4" s="5">
         <v>43610</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="B4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="6">
         <v>0.8</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="6">
         <v>0.9</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="6">
         <v>1</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4">
+      <c r="G4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="10">
         <v>129.01988706132499</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="10">
         <v>35.237173580917599</v>
       </c>
     </row>
@@ -789,7 +938,7 @@
         <v>43653</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
@@ -804,25 +953,25 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="8">
+        <v>7</v>
+      </c>
+      <c r="H5" s="9">
         <v>129.01229120422201</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="9">
         <v>35.196900997482501</v>
       </c>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>43960</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2">
         <v>1.5</v>
@@ -834,24 +983,24 @@
         <v>1.5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="8">
+        <v>10</v>
+      </c>
+      <c r="H6" s="9">
         <v>128.999395477229</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="9">
         <v>35.202882161353301</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>44334</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2">
         <v>1.5</v>
@@ -863,12 +1012,12 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="8">
+        <v>13</v>
+      </c>
+      <c r="H7" s="9">
         <v>128.99436294793401</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="9">
         <v>35.196431710294497</v>
       </c>
     </row>
@@ -877,10 +1026,10 @@
         <v>44432</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -892,12 +1041,12 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="8">
+        <v>16</v>
+      </c>
+      <c r="H8" s="9">
         <v>129.01216493566301</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="9">
         <v>35.196677804948202</v>
       </c>
     </row>
@@ -906,7 +1055,7 @@
         <v>44475</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
@@ -921,25 +1070,25 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="8">
+        <v>18</v>
+      </c>
+      <c r="H9" s="9">
         <v>128.99467478838301</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="9">
         <v>35.198409144593697</v>
       </c>
-      <c r="J9" s="8"/>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="1">
         <v>44581</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2">
         <v>0.5</v>
@@ -951,22 +1100,22 @@
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="8">
+        <v>20</v>
+      </c>
+      <c r="H10" s="9">
         <v>129.03646162685101</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="9">
         <v>35.213447608591601</v>
       </c>
-      <c r="J10" s="8"/>
+      <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="1">
         <v>45126</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
@@ -981,22 +1130,22 @@
         <v>3.5</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="8">
+        <v>22</v>
+      </c>
+      <c r="H11" s="9">
         <v>129.045199335788</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="9">
         <v>35.214210432592203</v>
       </c>
-      <c r="J11" s="8"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="1">
         <v>45148</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>4</v>
@@ -1011,25 +1160,25 @@
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="8">
+        <v>24</v>
+      </c>
+      <c r="H12" s="9">
         <v>128.994991896123</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="9">
         <v>35.1979082757287</v>
       </c>
-      <c r="J12" s="8"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="1">
         <v>45148</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2">
         <v>1.2</v>
@@ -1041,12 +1190,12 @@
         <v>0.9</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="8">
+        <v>27</v>
+      </c>
+      <c r="H13" s="9">
         <v>129.00611413719801</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="9">
         <v>35.194822700900303</v>
       </c>
     </row>
@@ -1055,7 +1204,7 @@
         <v>45162</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>4</v>
@@ -1070,22 +1219,22 @@
         <v>0.2</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="8">
+        <v>24</v>
+      </c>
+      <c r="H14" s="9">
         <v>129.02172912443501</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="9">
         <v>35.2100449082563</v>
       </c>
-      <c r="J14" s="8"/>
+      <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="1">
         <v>45319</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>4</v>
@@ -1100,22 +1249,22 @@
         <v>2.1</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="8">
+        <v>30</v>
+      </c>
+      <c r="H15" s="9">
         <v>129.01829602423999</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="9">
         <v>35.266037181953799</v>
       </c>
-      <c r="J15" s="8"/>
+      <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="1">
         <v>45401</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>1</v>
@@ -1130,15 +1279,15 @@
         <v>1.3</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="8">
+        <v>32</v>
+      </c>
+      <c r="H16" s="9">
         <v>129.00764569587</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="9">
         <v>35.198618257724803</v>
       </c>
-      <c r="J16" s="8"/>
+      <c r="J16" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
